--- a/infiniviewAutomation/src/test/java/config/TestData.xlsx
+++ b/infiniviewAutomation/src/test/java/config/TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
   <si>
     <t>Test Case Name</t>
   </si>
